--- a/Result_files/V3_Bids_2021-07-12_2021-07-18.xlsx
+++ b/Result_files/V3_Bids_2021-07-12_2021-07-18.xlsx
@@ -560,7 +560,7 @@
         <v>59.92199999999997</v>
       </c>
       <c r="J2" t="n">
-        <v>-2039.793544329791</v>
+        <v>-2032.292368304559</v>
       </c>
       <c r="K2" t="n">
         <v>84.629997</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5247.528239007329</v>
+        <v>5254.051327735197</v>
       </c>
       <c r="K3" t="n">
         <v>79.620003</v>
@@ -657,7 +657,7 @@
         <v>47.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5113.917630621353</v>
+        <v>5114.96598329505</v>
       </c>
       <c r="K4" t="n">
         <v>76.989998</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4967.634452529248</v>
+        <v>4999.261262597872</v>
       </c>
       <c r="K5" t="n">
         <v>75.44000200000001</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>59.00000000000002</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4219.02806178545</v>
+        <v>5107.399982889129</v>
       </c>
       <c r="K6" t="n">
         <v>75.769997</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.00000000000002</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0.53</v>
       </c>
       <c r="F7" t="n">
-        <v>18.3</v>
+        <v>49.8</v>
       </c>
       <c r="G7" t="n">
         <v>53.65199999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>62.04300000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>-2931.761189385039</v>
+        <v>2558.110274972778</v>
       </c>
       <c r="K7" t="n">
         <v>78.300003</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>59.00000000000002</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>1.13</v>
       </c>
       <c r="F8" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>53.65199999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I8" t="n">
         <v>62.04300000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-2631.1986484</v>
+        <v>-2917.848042271225</v>
       </c>
       <c r="K8" t="n">
         <v>89.800003</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>59.00000000000002</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>1.27</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>53.725</v>
+        <v>53.65199999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>49.8</v>
+        <v>38.8</v>
       </c>
       <c r="I9" t="n">
         <v>60.11399999999998</v>
       </c>
       <c r="J9" t="n">
-        <v>-12499.51340396014</v>
+        <v>-2927.695682920001</v>
       </c>
       <c r="K9" t="n">
         <v>100.540001</v>
@@ -993,22 +993,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.270000000000323</v>
+        <v>1.27</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G10" t="n">
         <v>53.65199999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>47.8</v>
+        <v>24.3</v>
       </c>
       <c r="I10" t="n">
         <v>60.11399999999998</v>
       </c>
       <c r="J10" t="n">
-        <v>-17076.43472276932</v>
+        <v>-2791.938077645239</v>
       </c>
       <c r="K10" t="n">
         <v>105.510002</v>
@@ -1046,7 +1046,7 @@
         <v>55.6</v>
       </c>
       <c r="D11" t="n">
-        <v>47.8</v>
+        <v>43.7</v>
       </c>
       <c r="E11" t="n">
         <v>0.5700000000000001</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-12161.11482069331</v>
+        <v>-92.04868379999991</v>
       </c>
       <c r="K11" t="n">
         <v>95.19996999999999</v>
@@ -1102,7 +1102,7 @@
         <v>55.6</v>
       </c>
       <c r="D12" t="n">
-        <v>47.8</v>
+        <v>22.2</v>
       </c>
       <c r="E12" t="n">
         <v>0.4</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-14029.40093875764</v>
+        <v>862.0962489828571</v>
       </c>
       <c r="K12" t="n">
         <v>93.7</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-14316.86142132816</v>
+        <v>861.6567896571446</v>
       </c>
       <c r="K13" t="n">
         <v>89.59998</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-13558.97733914663</v>
+        <v>-997.7037421149654</v>
       </c>
       <c r="K14" t="n">
         <v>86.449997</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.54</v>
+        <v>0.5300000000000006</v>
       </c>
       <c r="F15" t="n">
         <v>49.8</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>53.89999999999992</v>
+        <v>54.354</v>
       </c>
       <c r="J15" t="n">
-        <v>-14298.93723826002</v>
+        <v>992.4538301427558</v>
       </c>
       <c r="K15" t="n">
         <v>80.7</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5399999999999636</v>
+        <v>0.5300000000000006</v>
       </c>
       <c r="F16" t="n">
         <v>49.8</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>54.354</v>
+        <v>53.89999999999992</v>
       </c>
       <c r="J16" t="n">
-        <v>-12337.47207744119</v>
+        <v>-570.9890225231792</v>
       </c>
       <c r="K16" t="n">
         <v>79.260002</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.54</v>
+        <v>0.5300000000000006</v>
       </c>
       <c r="F17" t="n">
         <v>49.8</v>
@@ -1400,7 +1400,7 @@
         <v>53.89999999999992</v>
       </c>
       <c r="J17" t="n">
-        <v>-10809.46707188065</v>
+        <v>821.0981769449644</v>
       </c>
       <c r="K17" t="n">
         <v>78.959999</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>64.63</v>
+        <v>57.5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.54</v>
+        <v>0.5300000000000006</v>
       </c>
       <c r="F18" t="n">
         <v>49.8</v>
@@ -1456,7 +1456,7 @@
         <v>54.18599999999998</v>
       </c>
       <c r="J18" t="n">
-        <v>-8448.584744725384</v>
+        <v>2315.804672116356</v>
       </c>
       <c r="K18" t="n">
         <v>79.83000199999999</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>64.63</v>
+        <v>57.5</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0.6000000000012728</v>
       </c>
       <c r="F19" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>49.48599999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I19" t="n">
         <v>54.18599999999998</v>
       </c>
       <c r="J19" t="n">
-        <v>-5770.275160617257</v>
+        <v>-1874.467947347108</v>
       </c>
       <c r="K19" t="n">
         <v>93.269997</v>
@@ -1547,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>64.63</v>
+        <v>57.5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9400000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>54.18599999999998</v>
       </c>
       <c r="J20" t="n">
-        <v>-4647.747852769575</v>
+        <v>-1795.076114536349</v>
       </c>
       <c r="K20" t="n">
         <v>107.959999</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>64.63</v>
+        <v>57.5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>54.471</v>
       </c>
       <c r="J21" t="n">
-        <v>-3071.579023569512</v>
+        <v>-1776.884863430067</v>
       </c>
       <c r="K21" t="n">
         <v>105.989998</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>42.08</v>
+        <v>46</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>54.471</v>
       </c>
       <c r="J22" t="n">
-        <v>-2063.537448045445</v>
+        <v>-1767.102204943784</v>
       </c>
       <c r="K22" t="n">
         <v>109.80002</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>42.08</v>
+        <v>46</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>57.5929999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>-1953.349952652095</v>
+        <v>-1953.349952652096</v>
       </c>
       <c r="K23" t="n">
         <v>100.720001</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>42.08</v>
+        <v>46</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>57.5929999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-1982.652258096649</v>
+        <v>-1982.65225809665</v>
       </c>
       <c r="K24" t="n">
         <v>98.379997</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>42.08</v>
+        <v>46</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.54</v>
+        <v>0.5300000000000006</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>57.5929999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>-2041.149396044691</v>
+        <v>-2041.149396044688</v>
       </c>
       <c r="K25" t="n">
         <v>89.709999</v>
@@ -1904,7 +1904,7 @@
         <v>59.92199999999997</v>
       </c>
       <c r="J26" t="n">
-        <v>-2059.637406073462</v>
+        <v>-2052.332111262452</v>
       </c>
       <c r="K26" t="n">
         <v>78.220001</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4846.470381085836</v>
+        <v>4918.346700071265</v>
       </c>
       <c r="K29" t="n">
         <v>68.29998999999999</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D30" t="n">
         <v>49.8</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4011.460385507635</v>
+        <v>5019.753323490517</v>
       </c>
       <c r="K30" t="n">
         <v>68.18000000000001</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2172,19 +2172,19 @@
         <v>0.3999999999996362</v>
       </c>
       <c r="F31" t="n">
-        <v>29.5</v>
+        <v>49.8</v>
       </c>
       <c r="G31" t="n">
         <v>53.65199999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.04300000000001</v>
+        <v>62.21</v>
       </c>
       <c r="J31" t="n">
-        <v>-2877.492585952024</v>
+        <v>2333.324919882898</v>
       </c>
       <c r="K31" t="n">
         <v>71.89995999999999</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>49.8</v>
+        <v>13.6</v>
       </c>
       <c r="G32" t="n">
         <v>53.65199999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="I32" t="n">
-        <v>62.21</v>
+        <v>62.04300000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>-4306.417711098695</v>
+        <v>-2994.759378915632</v>
       </c>
       <c r="K32" t="n">
         <v>87.279999</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>1.06</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G33" t="n">
-        <v>53.696</v>
+        <v>53.65199999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>60.11399999999998</v>
+        <v>60.413</v>
       </c>
       <c r="J33" t="n">
-        <v>-13363.65697150706</v>
+        <v>-3860.076402995618</v>
       </c>
       <c r="K33" t="n">
         <v>93.550003</v>
@@ -2337,22 +2337,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.060000000000286</v>
+        <v>1.06</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G34" t="n">
-        <v>53.696</v>
+        <v>53.65199999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.11399999999998</v>
+        <v>60.413</v>
       </c>
       <c r="J34" t="n">
-        <v>-15753.92072248468</v>
+        <v>-7569.714751272697</v>
       </c>
       <c r="K34" t="n">
         <v>96.80999799999999</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-7189.671917848391</v>
+        <v>-7472.811855670124</v>
       </c>
       <c r="K35" t="n">
         <v>90</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-8694.577724067734</v>
+        <v>-8704.191745913824</v>
       </c>
       <c r="K36" t="n">
         <v>83.989998</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-6093.138751521789</v>
+        <v>-8939.913161700842</v>
       </c>
       <c r="K37" t="n">
         <v>81.400002</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>56.39999999999998</v>
+        <v>56.4</v>
       </c>
       <c r="D38" t="n">
         <v>49.8</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-12612.73939494695</v>
+        <v>-7456.205820182368</v>
       </c>
       <c r="K38" t="n">
         <v>74.989998</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.39999999999998</v>
+        <v>56.4</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>54.354</v>
       </c>
       <c r="J39" t="n">
-        <v>-15183.44715541598</v>
+        <v>-6744.210524826398</v>
       </c>
       <c r="K39" t="n">
         <v>72.10002</v>
@@ -2667,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>56.39999999999998</v>
+        <v>56.4</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.57000000000005</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F40" t="n">
         <v>49.8</v>
@@ -2688,7 +2688,7 @@
         <v>54.354</v>
       </c>
       <c r="J40" t="n">
-        <v>-12544.3172141194</v>
+        <v>-4301.833807700939</v>
       </c>
       <c r="K40" t="n">
         <v>71.900002</v>
@@ -2723,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>56.39999999999998</v>
+        <v>56.4</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.57000000000005</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F41" t="n">
         <v>49.8</v>
@@ -2744,7 +2744,7 @@
         <v>53.914</v>
       </c>
       <c r="J41" t="n">
-        <v>-11252.52310957496</v>
+        <v>-1466.430920734851</v>
       </c>
       <c r="K41" t="n">
         <v>73</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>54.64</v>
+        <v>54.199</v>
       </c>
       <c r="J42" t="n">
-        <v>-8195.611379725395</v>
+        <v>1901.807282235745</v>
       </c>
       <c r="K42" t="n">
         <v>79.10002</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>0.67</v>
       </c>
       <c r="F43" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>49.48599999999999</v>
+        <v>49.499</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I43" t="n">
-        <v>54.199</v>
+        <v>54.18599999999998</v>
       </c>
       <c r="J43" t="n">
-        <v>-4640.08135194161</v>
+        <v>-1845.896234828083</v>
       </c>
       <c r="K43" t="n">
         <v>85.599998</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>54.18599999999998</v>
       </c>
       <c r="J44" t="n">
-        <v>-5208.310630184089</v>
+        <v>-1797.344840790808</v>
       </c>
       <c r="K44" t="n">
         <v>94.599998</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>54.471</v>
       </c>
       <c r="J45" t="n">
-        <v>-3537.037499516012</v>
+        <v>-1775.317774918442</v>
       </c>
       <c r="K45" t="n">
         <v>100</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>38.16</v>
+        <v>48.46</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>54.471</v>
       </c>
       <c r="J46" t="n">
-        <v>-2151.484496667396</v>
+        <v>-1787.597911167903</v>
       </c>
       <c r="K46" t="n">
         <v>100</v>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>38.16</v>
+        <v>48.46</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>38.16</v>
+        <v>48.46</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>57.5929999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>-1986.424417705709</v>
+        <v>-1986.424417705711</v>
       </c>
       <c r="K48" t="n">
         <v>91.769997</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>38.16</v>
+        <v>48.46</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>57.5929999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>-2042.761212024442</v>
+        <v>-2042.761212024441</v>
       </c>
       <c r="K49" t="n">
         <v>83.139999</v>
@@ -3236,19 +3236,19 @@
         <v>0.3999999999996362</v>
       </c>
       <c r="F50" t="n">
-        <v>5.9</v>
+        <v>47.8</v>
       </c>
       <c r="G50" t="n">
         <v>51.40199999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>41.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>50.06700000000001</v>
+        <v>59.92200000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>-1363.863905692335</v>
+        <v>2662.365427362236</v>
       </c>
       <c r="K50" t="n">
         <v>94.18000000000001</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5220.749742406835</v>
+        <v>5227.23281382603</v>
       </c>
       <c r="K51" t="n">
         <v>86.739998</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5092.570139881959</v>
+        <v>5092.570139881958</v>
       </c>
       <c r="K52" t="n">
         <v>80.50003</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>4862.725285167996</v>
+        <v>4900.020055245167</v>
       </c>
       <c r="K53" t="n">
         <v>75.610001</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D54" t="n">
         <v>49.8</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>4161.565381710914</v>
+        <v>5078.165079073991</v>
       </c>
       <c r="K54" t="n">
         <v>75.29998999999999</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0.3999999999996362</v>
       </c>
       <c r="F55" t="n">
-        <v>49.6</v>
+        <v>49.8</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>63.284</v>
       </c>
       <c r="J55" t="n">
-        <v>-246.6345931175911</v>
+        <v>2764.95785214408</v>
       </c>
       <c r="K55" t="n">
         <v>73.989998</v>
@@ -3563,28 +3563,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="F56" t="n">
-        <v>49.8</v>
+        <v>7.5</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>42.3</v>
       </c>
       <c r="I56" t="n">
-        <v>62.19899999999998</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-3657.605272821991</v>
+        <v>-2138.620988522151</v>
       </c>
       <c r="K56" t="n">
         <v>74.5</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3628,19 +3628,19 @@
         <v>1.12</v>
       </c>
       <c r="F57" t="n">
-        <v>49.8</v>
+        <v>26.4</v>
       </c>
       <c r="G57" t="n">
         <v>53.72499999999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="I57" t="n">
-        <v>60.41299999999998</v>
+        <v>49.61599999999993</v>
       </c>
       <c r="J57" t="n">
-        <v>-6939.169586378435</v>
+        <v>-2993.745743240424</v>
       </c>
       <c r="K57" t="n">
         <v>75.41999800000001</v>
@@ -3672,10 +3672,10 @@
         <v>44391.33333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>1.12</v>
       </c>
       <c r="F58" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G58" t="n">
         <v>53.72499999999997</v>
@@ -3696,7 +3696,7 @@
         <v>63.463</v>
       </c>
       <c r="J58" t="n">
-        <v>-11217.86661121409</v>
+        <v>-4030.979192812793</v>
       </c>
       <c r="K58" t="n">
         <v>78.68000000000001</v>
@@ -3728,10 +3728,10 @@
         <v>44391.375</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>1.12</v>
       </c>
       <c r="F59" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G59" t="n">
         <v>59.754</v>
@@ -3752,7 +3752,7 @@
         <v>49.616</v>
       </c>
       <c r="J59" t="n">
-        <v>-6555.804690800162</v>
+        <v>-6399.632093351311</v>
       </c>
       <c r="K59" t="n">
         <v>77.80002</v>
@@ -3784,13 +3784,13 @@
         <v>44391.41666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="D60" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="E60" t="n">
         <v>0.4</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-11289.80899256567</v>
+        <v>-7822.517052937726</v>
       </c>
       <c r="K60" t="n">
         <v>75.239998</v>
@@ -3840,13 +3840,13 @@
         <v>44391.45833333334</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="D61" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="E61" t="n">
         <v>0.4</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-8547.628044883633</v>
+        <v>-8609.711033875768</v>
       </c>
       <c r="K61" t="n">
         <v>78.29998999999999</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>55.99999999999999</v>
+        <v>54</v>
       </c>
       <c r="D62" t="n">
         <v>49.8</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-8896.49899918321</v>
+        <v>-5925.465772958674</v>
       </c>
       <c r="K62" t="n">
         <v>78.19996999999999</v>
@@ -3955,28 +3955,28 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>55.99999999999999</v>
+        <v>54</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.57000000000005</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F63" t="n">
         <v>49.8</v>
       </c>
       <c r="G63" t="n">
-        <v>49.556</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>53.9</v>
+        <v>57.724</v>
       </c>
       <c r="J63" t="n">
-        <v>-10249.7720055871</v>
+        <v>-5931.843718550686</v>
       </c>
       <c r="K63" t="n">
         <v>74</v>
@@ -4011,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>55.99999999999999</v>
+        <v>54</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.57000000000005</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F64" t="n">
         <v>49.8</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>57.724</v>
       </c>
       <c r="J64" t="n">
-        <v>-9617.120187322485</v>
+        <v>-4001.084724266706</v>
       </c>
       <c r="K64" t="n">
         <v>69.260002</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>55.99999999999999</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>57.724</v>
       </c>
       <c r="J65" t="n">
-        <v>-5858.567439548774</v>
+        <v>-1210.066636820569</v>
       </c>
       <c r="K65" t="n">
         <v>69.7</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>54.186</v>
+        <v>57.724</v>
       </c>
       <c r="J66" t="n">
-        <v>-4247.932775489422</v>
+        <v>1500.286030409727</v>
       </c>
       <c r="K66" t="n">
         <v>77.29998999999999</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6700000000000728</v>
+        <v>0.67</v>
       </c>
       <c r="F67" t="n">
-        <v>44.3</v>
+        <v>49.8</v>
       </c>
       <c r="G67" t="n">
-        <v>49.508</v>
+        <v>49.50799999999998</v>
       </c>
       <c r="H67" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>49.322</v>
+        <v>54.186</v>
       </c>
       <c r="J67" t="n">
-        <v>-2862.621054751675</v>
+        <v>3183.949602078791</v>
       </c>
       <c r="K67" t="n">
         <v>83.7</v>
@@ -4244,19 +4244,19 @@
         <v>1.12</v>
       </c>
       <c r="F68" t="n">
-        <v>41.3</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>49.50799999999998</v>
+        <v>59.421</v>
       </c>
       <c r="H68" t="n">
-        <v>8.5</v>
+        <v>49.8</v>
       </c>
       <c r="I68" t="n">
         <v>49.322</v>
       </c>
       <c r="J68" t="n">
-        <v>-2854.479852265194</v>
+        <v>-1778.559603111957</v>
       </c>
       <c r="K68" t="n">
         <v>93.849998</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>57.83000000000001</v>
+        <v>61.802</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>49.56799999999993</v>
       </c>
       <c r="J69" t="n">
-        <v>-4206.181667668554</v>
+        <v>-1722.26217683641</v>
       </c>
       <c r="K69" t="n">
         <v>99.540001</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>61.802</v>
+        <v>59.373</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4368,7 +4368,7 @@
         <v>49.56799999999993</v>
       </c>
       <c r="J70" t="n">
-        <v>-2221.573164255383</v>
+        <v>-1737.983846598893</v>
       </c>
       <c r="K70" t="n">
         <v>100</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>49.46099999999996</v>
+        <v>61.802</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4424,7 +4424,7 @@
         <v>49.56799999999993</v>
       </c>
       <c r="J71" t="n">
-        <v>-1859.211800744228</v>
+        <v>-1859.211800744222</v>
       </c>
       <c r="K71" t="n">
         <v>102.89996</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>58.63900000000001</v>
+        <v>59.659</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4524,19 +4524,19 @@
         <v>0.5200000000004739</v>
       </c>
       <c r="F73" t="n">
-        <v>46.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="G73" t="n">
         <v>50.26999999999992</v>
       </c>
       <c r="H73" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>49.61599999999993</v>
+        <v>57.59299999999999</v>
       </c>
       <c r="J73" t="n">
-        <v>2461.363446070936</v>
+        <v>2795.821674290701</v>
       </c>
       <c r="K73" t="n">
         <v>95.730003</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.45</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>59.92199999999997</v>
       </c>
       <c r="J74" t="n">
-        <v>-2006.851432492742</v>
+        <v>-2000.865018392029</v>
       </c>
       <c r="K74" t="n">
         <v>94.18000000000001</v>
@@ -4630,10 +4630,10 @@
         <v>46</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E75" t="n">
-        <v>0.45</v>
+        <v>0.3999999999996362</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>806.799329358495</v>
+        <v>5421.0992082624</v>
       </c>
       <c r="K75" t="n">
         <v>86.739998</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>5055.605912636374</v>
+        <v>5088.446565154006</v>
       </c>
       <c r="K77" t="n">
         <v>75.610001</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D78" t="n">
         <v>49.8</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4412.892285999088</v>
+        <v>5233.168514938196</v>
       </c>
       <c r="K78" t="n">
         <v>75.29998999999999</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4860,19 +4860,19 @@
         <v>0.3999999999996362</v>
       </c>
       <c r="F79" t="n">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>53.652</v>
       </c>
       <c r="H79" t="n">
-        <v>27.6</v>
+        <v>49.8</v>
       </c>
       <c r="I79" t="n">
         <v>62.04300000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>-2737.262152943735</v>
+        <v>-2634.7167298308</v>
       </c>
       <c r="K79" t="n">
         <v>73.989998</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="G80" t="n">
-        <v>53.65200000000002</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>49.8</v>
+        <v>25.4</v>
       </c>
       <c r="I80" t="n">
         <v>62.04300000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>-8860.584049060682</v>
+        <v>-2698.897060346969</v>
       </c>
       <c r="K80" t="n">
         <v>74.5</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>56.00000000000001</v>
+        <v>56</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>49.8</v>
       </c>
       <c r="G81" t="n">
-        <v>49.568</v>
+        <v>49.56799999999993</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>60.11399999999998</v>
       </c>
       <c r="J81" t="n">
-        <v>-7133.431309498735</v>
+        <v>-3169.1562372051</v>
       </c>
       <c r="K81" t="n">
         <v>75.41999800000001</v>
@@ -5019,28 +5019,28 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>48.94000000000005</v>
+        <v>48.94</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1.060000000000286</v>
+        <v>1.06</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G82" t="n">
-        <v>53.65200000000001</v>
+        <v>49.56799999999993</v>
       </c>
       <c r="H82" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>60.11399999999998</v>
       </c>
       <c r="J82" t="n">
-        <v>-16315.70820169194</v>
+        <v>-6169.366381761478</v>
       </c>
       <c r="K82" t="n">
         <v>78.68000000000001</v>
@@ -5075,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>48.94000000000005</v>
+        <v>48.94</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-9680.812773005242</v>
+        <v>-8012.135725052342</v>
       </c>
       <c r="K83" t="n">
         <v>77.80002</v>
@@ -5131,13 +5131,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>48.94000000000005</v>
+        <v>48.94</v>
       </c>
       <c r="D84" t="n">
         <v>47.8</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.4</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-12514.78360838006</v>
+        <v>-5548.545657330975</v>
       </c>
       <c r="K84" t="n">
         <v>75.239998</v>
@@ -5187,13 +5187,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>48.94000000000005</v>
+        <v>48.94</v>
       </c>
       <c r="D85" t="n">
         <v>47.8</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.4</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-12289.93528156975</v>
+        <v>-4162.857856419</v>
       </c>
       <c r="K85" t="n">
         <v>78.29998999999999</v>
@@ -5243,13 +5243,13 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D86" t="n">
         <v>49.8</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.4</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-12832.90489241716</v>
+        <v>-4062.463577244288</v>
       </c>
       <c r="K86" t="n">
         <v>78.19996999999999</v>
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F87" t="n">
         <v>49.8</v>
       </c>
       <c r="G87" t="n">
-        <v>49.53299999999999</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>53.89999999999992</v>
       </c>
       <c r="J87" t="n">
-        <v>-13461.30870046573</v>
+        <v>-4968.046410699624</v>
       </c>
       <c r="K87" t="n">
         <v>74</v>
@@ -5355,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.57000000000005</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="F88" t="n">
         <v>49.8</v>
@@ -5376,7 +5376,7 @@
         <v>53.89999999999992</v>
       </c>
       <c r="J88" t="n">
-        <v>-11729.45073544082</v>
+        <v>-2518.775124783646</v>
       </c>
       <c r="K88" t="n">
         <v>69.260002</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -5420,19 +5420,19 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>49.8</v>
+        <v>27.8</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I89" t="n">
         <v>53.89999999999992</v>
       </c>
       <c r="J89" t="n">
-        <v>-5143.127270879929</v>
+        <v>-2363.134658599406</v>
       </c>
       <c r="K89" t="n">
         <v>69.7</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>60.67</v>
+        <v>55.06</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>54.18599999999998</v>
+        <v>54.64</v>
       </c>
       <c r="J90" t="n">
-        <v>-6755.845328567998</v>
+        <v>1133.624749599389</v>
       </c>
       <c r="K90" t="n">
         <v>77.29998999999999</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>60.67</v>
+        <v>55.06</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -5532,19 +5532,19 @@
         <v>0.67</v>
       </c>
       <c r="F91" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>48.93299999999999</v>
+        <v>49.48600000000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I91" t="n">
         <v>54.18599999999998</v>
       </c>
       <c r="J91" t="n">
-        <v>-4160.823438196851</v>
+        <v>-1977.930007792675</v>
       </c>
       <c r="K91" t="n">
         <v>83.7</v>
@@ -5579,19 +5579,19 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>60.67</v>
+        <v>55.06</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9400000000003956</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>48.93299999999999</v>
+        <v>57.877</v>
       </c>
       <c r="H92" t="n">
         <v>49.8</v>
@@ -5600,7 +5600,7 @@
         <v>54.18599999999998</v>
       </c>
       <c r="J92" t="n">
-        <v>-6168.480092877082</v>
+        <v>-1787.225326698353</v>
       </c>
       <c r="K92" t="n">
         <v>93.849998</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>60.67</v>
+        <v>55.06</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>54.471</v>
       </c>
       <c r="J93" t="n">
-        <v>-3829.554580993231</v>
+        <v>-1739.796833394612</v>
       </c>
       <c r="K93" t="n">
         <v>99.540001</v>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>46.52000000000001</v>
+        <v>46</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>57.83</v>
+        <v>49.438</v>
       </c>
       <c r="H94" t="n">
         <v>49.8</v>
@@ -5712,7 +5712,7 @@
         <v>54.471</v>
       </c>
       <c r="J94" t="n">
-        <v>-2237.626782442039</v>
+        <v>-1741.319704828532</v>
       </c>
       <c r="K94" t="n">
         <v>100</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>46.52000000000001</v>
+        <v>46</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>49.568</v>
+        <v>57.83</v>
       </c>
       <c r="H95" t="n">
         <v>49.8</v>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>46.52000000000001</v>
+        <v>46</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>50.248</v>
+        <v>58.639</v>
       </c>
       <c r="H96" t="n">
         <v>49.8</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>46.52000000000001</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>50.248</v>
+        <v>58.639</v>
       </c>
       <c r="H97" t="n">
         <v>49.8</v>
@@ -5880,7 +5880,7 @@
         <v>57.5929999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>-2027.682543717391</v>
+        <v>-2026.03130613701</v>
       </c>
       <c r="K97" t="n">
         <v>95.730003</v>
@@ -5936,7 +5936,7 @@
         <v>50.04300000000001</v>
       </c>
       <c r="J98" t="n">
-        <v>-1941.257054698109</v>
+        <v>-1935.939019467849</v>
       </c>
       <c r="K98" t="n">
         <v>81.56999999999999</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>5235.330298586227</v>
+        <v>5235.330298586225</v>
       </c>
       <c r="K99" t="n">
         <v>75.900002</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>54</v>
+        <v>55.52</v>
       </c>
       <c r="D102" t="n">
         <v>49.8</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>4642.005770801531</v>
+        <v>5155.424946412392</v>
       </c>
       <c r="K102" t="n">
         <v>71.239998</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>54</v>
+        <v>55.52</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>63.045</v>
       </c>
       <c r="J103" t="n">
-        <v>285.0527043435883</v>
+        <v>2379.332545400476</v>
       </c>
       <c r="K103" t="n">
         <v>73.959999</v>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>54</v>
+        <v>55.52</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -6269,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>63.045</v>
       </c>
       <c r="J104" t="n">
-        <v>-2886.674351699362</v>
+        <v>1906.935217282672</v>
       </c>
       <c r="K104" t="n">
         <v>84.910004</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>54</v>
+        <v>55.52</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -6316,19 +6316,19 @@
         <v>1.27</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="G105" t="n">
-        <v>53.726</v>
+        <v>53.65199999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>49.8</v>
+        <v>34</v>
       </c>
       <c r="I105" t="n">
         <v>49.5449999999999</v>
       </c>
       <c r="J105" t="n">
-        <v>-12550.52311757782</v>
+        <v>-2854.447365720001</v>
       </c>
       <c r="K105" t="n">
         <v>95.949997</v>
@@ -6369,22 +6369,22 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1.269999999999982</v>
+        <v>1.27</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="G106" t="n">
-        <v>53.726</v>
+        <v>53.65199999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>47.8</v>
+        <v>3.5</v>
       </c>
       <c r="I106" t="n">
-        <v>49.54499999999999</v>
+        <v>49.5449999999999</v>
       </c>
       <c r="J106" t="n">
-        <v>-13052.88223998665</v>
+        <v>-2648.832962285838</v>
       </c>
       <c r="K106" t="n">
         <v>98.44000200000001</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6700000000000728</v>
+        <v>0.67</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>49.545</v>
       </c>
       <c r="J107" t="n">
-        <v>-11881.17550954881</v>
+        <v>-8420.629213656872</v>
       </c>
       <c r="K107" t="n">
         <v>96.400002</v>
@@ -6481,7 +6481,7 @@
         <v>47.8</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4700000000000273</v>
+        <v>0.47</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-13230.94771197507</v>
+        <v>-9449.473397512913</v>
       </c>
       <c r="K108" t="n">
         <v>94.959999</v>
@@ -6537,7 +6537,7 @@
         <v>47.8</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4700000000000273</v>
+        <v>0.47</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-12594.24490353658</v>
+        <v>-9490.429338360042</v>
       </c>
       <c r="K109" t="n">
         <v>95.91999800000001</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-13088.20495694076</v>
+        <v>-7861.811913604249</v>
       </c>
       <c r="K110" t="n">
         <v>92.33000199999999</v>
@@ -6664,7 +6664,7 @@
         <v>57.685</v>
       </c>
       <c r="J111" t="n">
-        <v>-14368.53973483906</v>
+        <v>-5860.799067657438</v>
       </c>
       <c r="K111" t="n">
         <v>90.19000200000001</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5399999999999636</v>
+        <v>0.54</v>
       </c>
       <c r="F112" t="n">
         <v>49.8</v>
@@ -6720,7 +6720,7 @@
         <v>57.685</v>
       </c>
       <c r="J112" t="n">
-        <v>-12715.701135727</v>
+        <v>-4981.286644921835</v>
       </c>
       <c r="K112" t="n">
         <v>85.66999800000001</v>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5399999999999636</v>
+        <v>0.54</v>
       </c>
       <c r="F113" t="n">
         <v>49.8</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>53.90000000000001</v>
+        <v>53.9</v>
       </c>
       <c r="J113" t="n">
-        <v>-10584.3577138823</v>
+        <v>-2031.534708069023</v>
       </c>
       <c r="K113" t="n">
         <v>85</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>57.876</v>
+        <v>54.186</v>
       </c>
       <c r="J114" t="n">
-        <v>-7780.551645205846</v>
+        <v>1601.646927243204</v>
       </c>
       <c r="K114" t="n">
         <v>79</v>
@@ -6876,19 +6876,19 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>49.48599999999999</v>
+        <v>49.499</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I115" t="n">
         <v>49.31099999999998</v>
       </c>
       <c r="J115" t="n">
-        <v>-4917.849654707367</v>
+        <v>-1874.885747288795</v>
       </c>
       <c r="K115" t="n">
         <v>94.639999</v>
@@ -6929,13 +6929,13 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9400000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>49.509</v>
+        <v>49.508</v>
       </c>
       <c r="H116" t="n">
         <v>49.8</v>
@@ -6944,7 +6944,7 @@
         <v>49.31099999999998</v>
       </c>
       <c r="J116" t="n">
-        <v>-6529.445202831922</v>
+        <v>-1797.385669288502</v>
       </c>
       <c r="K116" t="n">
         <v>98.66999800000001</v>
@@ -7000,7 +7000,7 @@
         <v>49.5449999999999</v>
       </c>
       <c r="J117" t="n">
-        <v>-3776.261121262509</v>
+        <v>-1779.841429182385</v>
       </c>
       <c r="K117" t="n">
         <v>103.769997</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>49.452</v>
+        <v>49.461</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7056,7 +7056,7 @@
         <v>49.5449999999999</v>
       </c>
       <c r="J118" t="n">
-        <v>-2108.400520611826</v>
+        <v>-1777.778200084501</v>
       </c>
       <c r="K118" t="n">
         <v>100.339996</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>49.452</v>
+        <v>49.461</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -7203,13 +7203,13 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.54</v>
+        <v>0.5300000000000006</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -7221,10 +7221,10 @@
         <v>49.8</v>
       </c>
       <c r="I121" t="n">
-        <v>49.593</v>
+        <v>49.5929999999999</v>
       </c>
       <c r="J121" t="n">
-        <v>-1966.269133917281</v>
+        <v>-1963.122887759967</v>
       </c>
       <c r="K121" t="n">
         <v>91.989998</v>
@@ -7265,22 +7265,22 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.52</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="G122" t="n">
         <v>51.40199999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>47.8</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="I122" t="n">
         <v>59.95400000000001</v>
       </c>
       <c r="J122" t="n">
-        <v>-2048.582487330095</v>
+        <v>-1199.793578550011</v>
       </c>
       <c r="K122" t="n">
         <v>74.29998999999999</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>55.52</v>
+        <v>56</v>
       </c>
       <c r="D126" t="n">
         <v>49.8</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>4356.910276166416</v>
+        <v>5092.573875783554</v>
       </c>
       <c r="K126" t="n">
         <v>64.839996</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>55.52</v>
+        <v>56</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -7548,19 +7548,19 @@
         <v>0.52</v>
       </c>
       <c r="F127" t="n">
-        <v>28.4</v>
+        <v>49.8</v>
       </c>
       <c r="G127" t="n">
         <v>53.72499999999999</v>
       </c>
       <c r="H127" t="n">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>62.20999999999998</v>
       </c>
       <c r="J127" t="n">
-        <v>-2858.319031939091</v>
+        <v>2320.190917528225</v>
       </c>
       <c r="K127" t="n">
         <v>67.66999800000001</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>55.52</v>
+        <v>56</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -7604,19 +7604,19 @@
         <v>0.9</v>
       </c>
       <c r="F128" t="n">
-        <v>49.8</v>
+        <v>8.6</v>
       </c>
       <c r="G128" t="n">
         <v>53.72499999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="I128" t="n">
         <v>62.20999999999998</v>
       </c>
       <c r="J128" t="n">
-        <v>-4368.502340227953</v>
+        <v>-3040.408521993636</v>
       </c>
       <c r="K128" t="n">
         <v>83.80002</v>
@@ -7651,28 +7651,28 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>55.52</v>
+        <v>56</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1.120000000000118</v>
+        <v>1.12</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
         <v>53.72499999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>49.8</v>
+        <v>18.3</v>
       </c>
       <c r="I129" t="n">
         <v>60.42399999999992</v>
       </c>
       <c r="J129" t="n">
-        <v>-13948.93064939186</v>
+        <v>-2805.168998729995</v>
       </c>
       <c r="K129" t="n">
         <v>93.760002</v>
@@ -7716,19 +7716,19 @@
         <v>0.669999999999618</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="G130" t="n">
         <v>53.72499999999999</v>
       </c>
       <c r="H130" t="n">
-        <v>47.8</v>
+        <v>14.4</v>
       </c>
       <c r="I130" t="n">
         <v>60.42399999999992</v>
       </c>
       <c r="J130" t="n">
-        <v>-17807.19718345807</v>
+        <v>-2738.384134106377</v>
       </c>
       <c r="K130" t="n">
         <v>96</v>
@@ -7766,7 +7766,7 @@
         <v>55.6</v>
       </c>
       <c r="D131" t="n">
-        <v>47.8</v>
+        <v>30.9</v>
       </c>
       <c r="E131" t="n">
         <v>0.669999999999618</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-12524.91796751555</v>
+        <v>189.4912117993724</v>
       </c>
       <c r="K131" t="n">
         <v>93.650002</v>
@@ -7822,7 +7822,7 @@
         <v>55.6</v>
       </c>
       <c r="D132" t="n">
-        <v>47.8</v>
+        <v>35.5</v>
       </c>
       <c r="E132" t="n">
         <v>0.54</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-14127.05547193345</v>
+        <v>182.5361340562643</v>
       </c>
       <c r="K132" t="n">
         <v>90.970001</v>
@@ -7878,7 +7878,7 @@
         <v>55.6</v>
       </c>
       <c r="D133" t="n">
-        <v>47.8</v>
+        <v>33.6</v>
       </c>
       <c r="E133" t="n">
         <v>0.54</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-14703.22252707928</v>
+        <v>519.2566978299018</v>
       </c>
       <c r="K133" t="n">
         <v>90.99997999999999</v>
@@ -7937,7 +7937,7 @@
         <v>49.8</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5399999999999636</v>
+        <v>0.54</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-14421.62175331274</v>
+        <v>3141.787309344162</v>
       </c>
       <c r="K134" t="n">
         <v>88.480003</v>
@@ -8008,7 +8008,7 @@
         <v>56.143</v>
       </c>
       <c r="J135" t="n">
-        <v>-15440.63026503054</v>
+        <v>771.9340123088231</v>
       </c>
       <c r="K135" t="n">
         <v>83.900002</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>53.91399999999993</v>
+        <v>56.143</v>
       </c>
       <c r="J136" t="n">
-        <v>-13400.84383628103</v>
+        <v>774.6126567667553</v>
       </c>
       <c r="K136" t="n">
         <v>80.7</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5800000000000409</v>
+        <v>0.58</v>
       </c>
       <c r="F137" t="n">
         <v>49.8</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>53.91399999999993</v>
+        <v>56.143</v>
       </c>
       <c r="J137" t="n">
-        <v>-11113.24332294684</v>
+        <v>2084.318196220892</v>
       </c>
       <c r="K137" t="n">
         <v>81.730003</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>54.1989999999999</v>
       </c>
       <c r="J138" t="n">
-        <v>-7625.104910541642</v>
+        <v>2740.15819078116</v>
       </c>
       <c r="K138" t="n">
         <v>82.410004</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -8220,19 +8220,19 @@
         <v>0.67</v>
       </c>
       <c r="F139" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>49.50799999999998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I139" t="n">
-        <v>56.429</v>
+        <v>54.1989999999999</v>
       </c>
       <c r="J139" t="n">
-        <v>-4628.959074610952</v>
+        <v>-1867.496869353917</v>
       </c>
       <c r="K139" t="n">
         <v>89.949997</v>
@@ -8267,19 +8267,19 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1.120000000000005</v>
+        <v>1.12</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>49.509</v>
+        <v>49.50799999999998</v>
       </c>
       <c r="H140" t="n">
         <v>49.8</v>
@@ -8288,7 +8288,7 @@
         <v>54.1989999999999</v>
       </c>
       <c r="J140" t="n">
-        <v>-6612.424761973189</v>
+        <v>-1795.502074773851</v>
       </c>
       <c r="K140" t="n">
         <v>97.589996</v>
@@ -8323,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>64.63</v>
+        <v>52</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1.120000000000005</v>
+        <v>1.12</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -8344,7 +8344,7 @@
         <v>54.48499999999996</v>
       </c>
       <c r="J141" t="n">
-        <v>-3728.960165438751</v>
+        <v>-1790.525732859639</v>
       </c>
       <c r="K141" t="n">
         <v>100.459999</v>
@@ -8400,7 +8400,7 @@
         <v>54.48499999999996</v>
       </c>
       <c r="J142" t="n">
-        <v>-2015.33997901111</v>
+        <v>-1785.582969132573</v>
       </c>
       <c r="K142" t="n">
         <v>100.99998</v>
@@ -8568,7 +8568,7 @@
         <v>57.6219999999999</v>
       </c>
       <c r="J145" t="n">
-        <v>-2068.384682155681</v>
+        <v>-2065.257435107816</v>
       </c>
       <c r="K145" t="n">
         <v>82.94000200000001</v>
@@ -8621,10 +8621,10 @@
         <v>47.8</v>
       </c>
       <c r="I146" t="n">
-        <v>48.00899999999999</v>
+        <v>48.00899999999996</v>
       </c>
       <c r="J146" t="n">
-        <v>-1890.229621225054</v>
+        <v>-1883.439421985024</v>
       </c>
       <c r="K146" t="n">
         <v>84.629997</v>
@@ -8662,10 +8662,10 @@
         <v>46</v>
       </c>
       <c r="D147" t="n">
-        <v>47.2</v>
+        <v>47.8</v>
       </c>
       <c r="E147" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2681.952808796434</v>
+        <v>5570.198797391698</v>
       </c>
       <c r="K147" t="n">
         <v>79.620003</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>5359.986384430969</v>
+        <v>5360.068143470269</v>
       </c>
       <c r="K148" t="n">
         <v>76.989998</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>5215.745197209937</v>
+        <v>5215.745197209936</v>
       </c>
       <c r="K149" t="n">
         <v>75.44000200000001</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>53.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="D150" t="n">
         <v>49.8</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>4859.403756514768</v>
+        <v>5373.450832543111</v>
       </c>
       <c r="K150" t="n">
         <v>75.769997</v>
@@ -8883,13 +8883,13 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>53.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5199999999999818</v>
+        <v>0.52</v>
       </c>
       <c r="F151" t="n">
         <v>49.8</v>
@@ -8901,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>63.34100000000002</v>
+        <v>62.19900000000001</v>
       </c>
       <c r="J151" t="n">
-        <v>266.8984214191992</v>
+        <v>2422.04103985945</v>
       </c>
       <c r="K151" t="n">
         <v>78.300003</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>53.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>62.199</v>
+        <v>63.894</v>
       </c>
       <c r="J152" t="n">
-        <v>-2850.721051990482</v>
+        <v>-560.1002641733453</v>
       </c>
       <c r="K152" t="n">
         <v>89.800003</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>53.90000000000001</v>
+        <v>64</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9004,19 +9004,19 @@
         <v>1.12</v>
       </c>
       <c r="F153" t="n">
-        <v>26.5</v>
+        <v>49.8</v>
       </c>
       <c r="G153" t="n">
-        <v>53.136</v>
+        <v>53.13599999999991</v>
       </c>
       <c r="H153" t="n">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>47.415</v>
+        <v>60.41300000000001</v>
       </c>
       <c r="J153" t="n">
-        <v>-5031.472260141296</v>
+        <v>-5213.419361982447</v>
       </c>
       <c r="K153" t="n">
         <v>100.540001</v>
@@ -9060,19 +9060,19 @@
         <v>1.12</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G154" t="n">
         <v>53.13599999999991</v>
       </c>
       <c r="H154" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>47.415</v>
+        <v>47.41499999999991</v>
       </c>
       <c r="J154" t="n">
-        <v>-12361.08179924036</v>
+        <v>-8751.907704219409</v>
       </c>
       <c r="K154" t="n">
         <v>105.510002</v>
@@ -9116,19 +9116,19 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>33.2</v>
       </c>
       <c r="G155" t="n">
         <v>49.568</v>
       </c>
       <c r="H155" t="n">
-        <v>47.8</v>
+        <v>14.6</v>
       </c>
       <c r="I155" t="n">
         <v>47.415</v>
       </c>
       <c r="J155" t="n">
-        <v>-9279.548924902139</v>
+        <v>-9529.826814806422</v>
       </c>
       <c r="K155" t="n">
         <v>95.19996999999999</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-9299.839649059772</v>
+        <v>-10383.7937980264</v>
       </c>
       <c r="K156" t="n">
         <v>93.7</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-9335.193641819875</v>
+        <v>-9353.541090071951</v>
       </c>
       <c r="K157" t="n">
         <v>89.59998</v>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D158" t="n">
         <v>49.8</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-12175.19154373843</v>
+        <v>-8727.629571628795</v>
       </c>
       <c r="K158" t="n">
         <v>86.449997</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>57.773</v>
       </c>
       <c r="J159" t="n">
-        <v>-15399.28693748727</v>
+        <v>-6685.534039925965</v>
       </c>
       <c r="K159" t="n">
         <v>80.7</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>53.9</v>
+        <v>57.773</v>
       </c>
       <c r="J160" t="n">
-        <v>-13099.87195731453</v>
+        <v>-3562.150119223849</v>
       </c>
       <c r="K160" t="n">
         <v>79.260002</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>57.773</v>
+        <v>53.9</v>
       </c>
       <c r="J161" t="n">
-        <v>-8992.318689810207</v>
+        <v>-804.4341885606611</v>
       </c>
       <c r="K161" t="n">
         <v>78.959999</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>59.00000000000002</v>
+        <v>57.5</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9517,10 +9517,10 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>57.77300000000002</v>
+        <v>47.36799999999999</v>
       </c>
       <c r="J162" t="n">
-        <v>-8049.417421248151</v>
+        <v>2170.038777397743</v>
       </c>
       <c r="K162" t="n">
         <v>79.83000199999999</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>59.00000000000002</v>
+        <v>57.5</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0.6600000000011998</v>
       </c>
       <c r="F163" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>48.86500000000001</v>
+        <v>49.486</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I163" t="n">
-        <v>56.42899999999999</v>
+        <v>47.36799999999999</v>
       </c>
       <c r="J163" t="n">
-        <v>-3166.576271646705</v>
+        <v>-1992.231726305346</v>
       </c>
       <c r="K163" t="n">
         <v>93.269997</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>59.00000000000002</v>
+        <v>57.5</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>47.36799999999999</v>
       </c>
       <c r="J164" t="n">
-        <v>-5071.583303730294</v>
+        <v>-1792.44097302304</v>
       </c>
       <c r="K164" t="n">
         <v>107.959999</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>59.00000000000002</v>
+        <v>57.5</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>49.43800000000003</v>
+        <v>49.461</v>
       </c>
       <c r="H165" t="n">
         <v>49.8</v>
@@ -9688,7 +9688,7 @@
         <v>47.892</v>
       </c>
       <c r="J165" t="n">
-        <v>-2467.184666194391</v>
+        <v>-1790.165219012496</v>
       </c>
       <c r="K165" t="n">
         <v>105.989998</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>42.08000000000008</v>
+        <v>42.08</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>49.43800000000003</v>
+        <v>49.461</v>
       </c>
       <c r="H166" t="n">
         <v>49.8</v>
@@ -9744,7 +9744,7 @@
         <v>47.892</v>
       </c>
       <c r="J166" t="n">
-        <v>-1831.974244736592</v>
+        <v>-1788.994202084311</v>
       </c>
       <c r="K166" t="n">
         <v>109.80002</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>42.08000000000008</v>
+        <v>42.08</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>49.43800000000003</v>
+        <v>49.461</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>42.08000000000008</v>
+        <v>42.08</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>42.08000000000008</v>
+        <v>42.08</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>50.27</v>
+        <v>50.248</v>
       </c>
       <c r="H169" t="n">
         <v>49.8</v>
@@ -9912,7 +9912,7 @@
         <v>47.892</v>
       </c>
       <c r="J169" t="n">
-        <v>-1955.557788633748</v>
+        <v>-1952.357783654294</v>
       </c>
       <c r="K169" t="n">
         <v>89.709999</v>
